--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_22-04.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_22-04.xlsx
@@ -366,9 +366,6 @@
   </si>
   <si>
     <t>RESTOHERB SYRUP</t>
-  </si>
-  <si>
-    <t>8:0</t>
   </si>
   <si>
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
@@ -3327,17 +3324,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3345,7 +3342,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3371,7 +3368,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3397,7 +3394,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3423,7 +3420,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3449,7 +3446,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3475,7 +3472,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3501,7 +3498,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3527,7 +3524,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3553,7 +3550,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3579,7 +3576,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3605,7 +3602,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3631,7 +3628,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3657,7 +3654,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3683,7 +3680,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3709,7 +3706,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3735,7 +3732,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3743,7 +3740,7 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
@@ -3761,7 +3758,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3787,7 +3784,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3813,7 +3810,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3839,7 +3836,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3847,7 +3844,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
@@ -3865,7 +3862,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3891,7 +3888,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3899,7 +3896,7 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
@@ -3917,7 +3914,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3943,7 +3940,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3951,7 +3948,7 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
@@ -3969,7 +3966,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3977,7 +3974,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
@@ -3995,7 +3992,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -4021,7 +4018,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4029,7 +4026,7 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
@@ -4047,7 +4044,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4055,7 +4052,7 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
@@ -4073,7 +4070,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4081,7 +4078,7 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
@@ -4099,7 +4096,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4107,7 +4104,7 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
@@ -4125,7 +4122,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4133,7 +4130,7 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
@@ -4151,7 +4148,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4177,7 +4174,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4203,7 +4200,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4211,7 +4208,7 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
@@ -4229,7 +4226,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4237,7 +4234,7 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
@@ -4255,7 +4252,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4281,7 +4278,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4307,7 +4304,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4315,7 +4312,7 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
@@ -4333,7 +4330,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4359,7 +4356,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4385,7 +4382,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4411,7 +4408,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4419,7 +4416,7 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
@@ -4434,7 +4431,7 @@
     </row>
     <row r="132" ht="26.25" customHeight="1">
       <c r="K132" s="10">
-        <v>6810.3100000000004</v>
+        <v>6855.3100000000004</v>
       </c>
       <c r="L132" s="10"/>
       <c r="M132" s="10"/>
@@ -4442,19 +4439,19 @@
     </row>
     <row r="133" ht="16.5" customHeight="1">
       <c t="s" r="A133" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
       <c t="s" r="F133" s="12">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G133" s="12"/>
       <c r="H133" s="13"/>
       <c t="s" r="I133" s="14">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J133" s="14"/>
       <c r="K133" s="14"/>
